--- a/3096_pracs_FRSKIA001_CLRCAM007/Tut 2/for coad I2c.xlsx
+++ b/3096_pracs_FRSKIA001_CLRCAM007/Tut 2/for coad I2c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/frskia001_myuct_ac_za/Documents/Desktop/uct/3 year/second semester/96 ATEMPT 2/Tut 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\3096_pracs_FRSKIA001_CLRCAM007\3096_pracs_FRSKIA001_CLRCAM007\Tut 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF947E1-7C92-4229-A1E0-DBB66F70AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AE2B01-72F7-4D62-94BD-3B004B11D41E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t xml:space="preserve">start </t>
   </si>
@@ -132,6 +121,33 @@
   </si>
   <si>
     <t>clock</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -249,19 +265,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1302,7 +1318,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5861548556430439E-2"/>
+          <c:y val="0.18706666666666666"/>
+          <c:w val="0.89546522309711285"/>
+          <c:h val="0.73205214348206471"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1644,6 +1670,829 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Q 4 I2c signale </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$CM$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73C0-426E-BF6C-5CDA7FD4512C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$CM$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73C0-426E-BF6C-5CDA7FD4512C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="214735224"/>
+        <c:axId val="214737848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="214735224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214737848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214737848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214735224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1764,6 +2613,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3312,20 +4201,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3353,15 +4758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3388,16 +4793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>245745</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3417,6 +4822,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1043594E-D1FB-444A-A452-47A1EA47FD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3692,15 +5133,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AX9"/>
+  <dimension ref="A3:CM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:AX9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +5203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3946,91 +5387,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="L7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8" t="s">
+      <c r="S7" s="9"/>
+      <c r="T7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8" t="s">
+      <c r="U7" s="9"/>
+      <c r="V7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8" t="s">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="9" t="s">
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="10" t="s">
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="6" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6" t="s">
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6" t="s">
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6" t="s">
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6" t="s">
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6" t="s">
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6" t="s">
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6" t="s">
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="10" t="s">
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AU7" s="10"/>
+      <c r="AU7" s="6"/>
       <c r="AV7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AW7" s="7"/>
       <c r="AX7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>19</v>
       </c>
@@ -4161,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>31</v>
       </c>
@@ -4326,16 +5767,1244 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="8"/>
+      <c r="BU12" s="8"/>
+      <c r="BV12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW12" s="8"/>
+      <c r="BX12" s="8"/>
+      <c r="BY12" s="8"/>
+      <c r="BZ12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA12" s="8"/>
+      <c r="CB12" s="8"/>
+      <c r="CC12" s="8"/>
+      <c r="CD12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="6"/>
+      <c r="CH12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI12" s="7"/>
+      <c r="CJ12" s="7"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="7"/>
+      <c r="CM12" s="7"/>
+    </row>
+    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>J13</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>K13</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>L13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>M13</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:CC13" si="1">N13</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" ref="CD13:CH13" si="2">BZ13</f>
+        <v>1</v>
+      </c>
+      <c r="CE13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="CF13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="CI13">
+        <v>1</v>
+      </c>
+      <c r="CJ13">
+        <v>1</v>
+      </c>
+      <c r="CK13">
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <v>1</v>
+      </c>
+      <c r="CM13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>I9</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <f>$C$21</f>
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" ref="AY14:BA14" si="3">$C$21</f>
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <f>$C$22</f>
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" ref="BC14:BF14" si="4">$C$22</f>
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <f>$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" ref="BG14:BI14" si="5">$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <f>$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <f>$C$24</f>
+        <v>1</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" ref="BK14:BN14" si="6">$C$24</f>
+        <v>1</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BN14">
+        <f>$C$25</f>
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" ref="BO14:BR14" si="7">$C$25</f>
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <f>$C$26</f>
+        <v>1</v>
+      </c>
+      <c r="BS14">
+        <f t="shared" ref="BS14:BV14" si="8">$C$26</f>
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <f>$C$27</f>
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" ref="BW14:BZ14" si="9">$C$27</f>
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <f>$C$28</f>
+        <v>1</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" ref="CA14:CC14" si="10">$C$28</f>
+        <v>1</v>
+      </c>
+      <c r="CB14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="CC14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>1</v>
+      </c>
+      <c r="CK14">
+        <v>1</v>
+      </c>
+      <c r="CL14">
+        <v>1</v>
+      </c>
+      <c r="CM14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f xml:space="preserve"> H14+1</f>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:BT15" si="11" xml:space="preserve"> I14+1</f>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BS15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BT15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BU15">
+        <f t="shared" ref="BU15:CM15" si="12" xml:space="preserve"> BU14+1</f>
+        <v>2</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CE15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CF15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CI15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CJ15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CK15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CL15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CM15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP18">
+        <f ca="1">AN18:AP18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AS7"/>
+  <mergeCells count="40">
+    <mergeCell ref="BZ12:CC12"/>
+    <mergeCell ref="CD12:CG12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="CH12:CM12"/>
+    <mergeCell ref="BF12:BI12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="BN12:BQ12"/>
+    <mergeCell ref="BR12:BU12"/>
+    <mergeCell ref="BV12:BY12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AX12:BA12"/>
+    <mergeCell ref="BB12:BE12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:M7"/>
@@ -4348,6 +7017,14 @@
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AR7:AS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4598,20 +7275,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a58a0a87-b044-4cb8-b00b-90b8f7b20782" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a58a0a87-b044-4cb8-b00b-90b8f7b20782" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4634,14 +7311,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B6240CF-5AA3-4434-83CF-26B53722938D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7991C2EF-B2FC-4952-A95D-8941ACF553C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4656,4 +7325,12 @@
     <ds:schemaRef ds:uri="a2a4f61a-e929-411d-9896-6225b7f9bf74"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B6240CF-5AA3-4434-83CF-26B53722938D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>